--- a/biology/Botanique/Noronhia_emarginata/Noronhia_emarginata.xlsx
+++ b/biology/Botanique/Noronhia_emarginata/Noronhia_emarginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Noronhia emarginata est une espèce de plantes à fleurs de la famille des Oleaceae et originaire de Madagascar et désormais naturalisée à Maurice, à La Réunion et aux Bermudes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (24 octobre 2022)[2] (liste brute contenant peut-être des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (24 octobre 2022) (liste brute contenant peut-être des synonymes) :
 variété Noronhia emarginata var. edentata H. Perrier
 variété Noronhia emarginata var. emarginata
 variété Noronhia emarginata var. garcinioides H. Perrier</t>
@@ -544,9 +558,11 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un modèle de cire de cette espèce, sous la forme d'un branche feuillue portant des fruits, accompagnée de détails et de coupes du fruit et du noyau, a été réalisé au début du XIXe siècle à l'île Maurice par Louis Marc Antoine Robillard d’Argentelle, qui lui donne le nom de « Ponay de l'Inde »[3]. Ce modèle est conservé au muséum national d'histoire naturelle à Paris[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un modèle de cire de cette espèce, sous la forme d'un branche feuillue portant des fruits, accompagnée de détails et de coupes du fruit et du noyau, a été réalisé au début du XIXe siècle à l'île Maurice par Louis Marc Antoine Robillard d’Argentelle, qui lui donne le nom de « Ponay de l'Inde ». Ce modèle est conservé au muséum national d'histoire naturelle à Paris.
 </t>
         </is>
       </c>
